--- a/study_results.xlsx
+++ b/study_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fh/Dropbox/Personal Folders/Projects/Meta Analysis/2_analysis/1_meta_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D27562-EDAF-9944-9779-9215060BBF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D44F558-0BA3-814D-BB3B-17750D004096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16100" xr2:uid="{F5F3C5B5-0E06-C54A-8CFA-0ED5F6883E31}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="200">
   <si>
     <t>year</t>
   </si>
@@ -213,9 +213,6 @@
     <t>Local Incumbent</t>
   </si>
   <si>
-    <t>Transfer</t>
-  </si>
-  <si>
     <t>continous (0.70-4.84)</t>
   </si>
   <si>
@@ -342,12 +339,6 @@
     <t>Johannessen (3)</t>
   </si>
   <si>
-    <t>Johannessen (4)</t>
-  </si>
-  <si>
-    <t>Johannessen (5)</t>
-  </si>
-  <si>
     <t>Garfias et al. (1)</t>
   </si>
   <si>
@@ -366,9 +357,6 @@
     <t>treatment</t>
   </si>
   <si>
-    <t>treatment_type</t>
-  </si>
-  <si>
     <t xml:space="preserve">outcome_measurement </t>
   </si>
   <si>
@@ -420,36 +408,15 @@
     <t>Infrastructure (4)</t>
   </si>
   <si>
-    <t>Health &amp; Sanitation (1)</t>
-  </si>
-  <si>
-    <t>Health &amp; Sanitation (2)</t>
-  </si>
-  <si>
-    <t>Health &amp; Sanitation (3)</t>
-  </si>
-  <si>
     <t>Various (1)</t>
   </si>
   <si>
-    <t>Health &amp; Sanitation (4)</t>
-  </si>
-  <si>
-    <t>Health &amp; Sanitation (5)</t>
-  </si>
-  <si>
-    <t>Health &amp; Sanitation (6)</t>
-  </si>
-  <si>
     <t>Land titling (1)</t>
   </si>
   <si>
     <t>Land titling (2)</t>
   </si>
   <si>
-    <t>Health &amp; Sanitation (7)</t>
-  </si>
-  <si>
     <t>Education (8)</t>
   </si>
   <si>
@@ -480,27 +447,6 @@
     <t>Various (3)</t>
   </si>
   <si>
-    <t>Health &amp; Sanitation (8)</t>
-  </si>
-  <si>
-    <t>Health &amp; Sanitation (9)</t>
-  </si>
-  <si>
-    <t>Health &amp; Sanitation (10)</t>
-  </si>
-  <si>
-    <t>Health &amp; Sanitation (11)</t>
-  </si>
-  <si>
-    <t>Urbanization (1)</t>
-  </si>
-  <si>
-    <t>Public Works (1)</t>
-  </si>
-  <si>
-    <t>Capital Purchases (1)</t>
-  </si>
-  <si>
     <t>Infrastructure (6)</t>
   </si>
   <si>
@@ -517,6 +463,168 @@
   </si>
   <si>
     <t>Various (4)</t>
+  </si>
+  <si>
+    <t>Habyarimana et al.</t>
+  </si>
+  <si>
+    <t>specification</t>
+  </si>
+  <si>
+    <t>Sandholtz</t>
+  </si>
+  <si>
+    <t>Goyal</t>
+  </si>
+  <si>
+    <t>De Kadt, Lieberman</t>
+  </si>
+  <si>
+    <t>Croke</t>
+  </si>
+  <si>
+    <t>Larreguy et al.</t>
+  </si>
+  <si>
+    <t>Bozcaga</t>
+  </si>
+  <si>
+    <t>Harding</t>
+  </si>
+  <si>
+    <t>Araujo et al.</t>
+  </si>
+  <si>
+    <t>Morier a</t>
+  </si>
+  <si>
+    <t>Springman</t>
+  </si>
+  <si>
+    <t>Guiteras, Mobarak</t>
+  </si>
+  <si>
+    <t>Johannessen</t>
+  </si>
+  <si>
+    <t>Garfias et al.</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>Land titling</t>
+  </si>
+  <si>
+    <t>Electricty</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>federal</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Infrastructure (10)</t>
+  </si>
+  <si>
+    <t>Infrastructure (11)</t>
+  </si>
+  <si>
+    <t>Vote share (0–100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratic presidential </t>
+  </si>
+  <si>
+    <t>Huet-Vaughn</t>
+  </si>
+  <si>
+    <t>treatment_specification</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Di Pietro</t>
+  </si>
+  <si>
+    <t>First-Difference</t>
+  </si>
+  <si>
+    <t>DiD</t>
+  </si>
+  <si>
+    <t>Sanitation Waste</t>
+  </si>
+  <si>
+    <t>Change in Approval</t>
+  </si>
+  <si>
+    <t>Sanitation Waste (1)</t>
+  </si>
+  <si>
+    <t>Sanitation Waste (2)</t>
+  </si>
+  <si>
+    <t>Sanitation Waste (3)</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Health (1)</t>
+  </si>
+  <si>
+    <t>Health (2)</t>
+  </si>
+  <si>
+    <t>Health (3)</t>
+  </si>
+  <si>
+    <t>Health (4)</t>
+  </si>
+  <si>
+    <t>Health (5)</t>
+  </si>
+  <si>
+    <t>Health (6)</t>
+  </si>
+  <si>
+    <t>Sanitation Waste (4)</t>
+  </si>
+  <si>
+    <t>Sanitation Waste (5)</t>
+  </si>
+  <si>
+    <t>Health (7)</t>
+  </si>
+  <si>
+    <t>Sanitation Waste (6)</t>
+  </si>
+  <si>
+    <t>incumbent.type</t>
+  </si>
+  <si>
+    <t>treatment.type</t>
+  </si>
+  <si>
+    <t>Infrastructure (12)</t>
+  </si>
+  <si>
+    <t>Di Pietro (1)</t>
+  </si>
+  <si>
+    <t>Di Pietro (2)</t>
   </si>
 </sst>
 </file>
@@ -872,24 +980,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0ABE20-0DDA-1E4C-A8FF-EDF84ECD427A}">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="8" width="29.1640625" customWidth="1"/>
-    <col min="9" max="9" width="35" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" customWidth="1"/>
-    <col min="17" max="17" width="168.5" customWidth="1"/>
+    <col min="3" max="4" width="37.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="10" width="29.1640625" customWidth="1"/>
+    <col min="11" max="12" width="35" customWidth="1"/>
+    <col min="13" max="13" width="22.1640625" customWidth="1"/>
+    <col min="20" max="20" width="168.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -900,49 +1008,58 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -950,43 +1067,52 @@
         <v>2021</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>121</v>
-      </c>
       <c r="F2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>32</v>
       </c>
-      <c r="J2">
+      <c r="L2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M2">
         <v>-1.3599999999999999E-2</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>9785</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>1</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -994,43 +1120,52 @@
         <v>2021</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>122</v>
-      </c>
       <c r="F3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>32</v>
       </c>
-      <c r="J3">
+      <c r="L3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M3">
         <v>1.89E-2</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>9785</v>
       </c>
-      <c r="P3">
+      <c r="S3">
         <v>1</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1038,43 +1173,52 @@
         <v>2019</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>123</v>
-      </c>
       <c r="F4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>32</v>
       </c>
-      <c r="J4">
+      <c r="L4" t="s">
+        <v>167</v>
+      </c>
+      <c r="M4">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>1.2E-2</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>1200</v>
       </c>
-      <c r="P4">
+      <c r="S4">
         <v>0</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="T4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1082,43 +1226,52 @@
         <v>2019</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>124</v>
-      </c>
       <c r="F5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>28</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>33</v>
       </c>
-      <c r="J5">
+      <c r="L5" t="s">
+        <v>167</v>
+      </c>
+      <c r="M5">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>0.02</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>1200</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <v>0</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="T5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1126,43 +1279,52 @@
         <v>2019</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>125</v>
-      </c>
       <c r="F6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>31</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>34</v>
       </c>
-      <c r="J6">
+      <c r="L6" t="s">
+        <v>167</v>
+      </c>
+      <c r="M6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>1200</v>
       </c>
-      <c r="P6">
+      <c r="S6">
         <v>0</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="T6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1170,37 +1332,46 @@
         <v>2021</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
       <c r="F7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>56</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>53</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>27</v>
       </c>
-      <c r="J7">
+      <c r="L7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M7">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>0.125</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>386</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1208,40 +1379,49 @@
         <v>2021</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
-        <v>128</v>
-      </c>
       <c r="F8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>56</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>53</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>27</v>
       </c>
-      <c r="J8">
+      <c r="L8" t="s">
+        <v>167</v>
+      </c>
+      <c r="M8">
         <v>-0.126</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>0.14499999999999999</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>320</v>
       </c>
-      <c r="P8">
+      <c r="S8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1249,37 +1429,46 @@
         <v>2021</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
-        <v>129</v>
-      </c>
       <c r="F9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>56</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>53</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>30</v>
       </c>
-      <c r="J9">
+      <c r="L9" t="s">
+        <v>166</v>
+      </c>
+      <c r="M9">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="L9">
+      <c r="O9">
         <v>2526</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1287,37 +1476,46 @@
         <v>2021</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
-        <v>130</v>
-      </c>
       <c r="F10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>56</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>53</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>30</v>
       </c>
-      <c r="J10">
+      <c r="L10" t="s">
+        <v>166</v>
+      </c>
+      <c r="M10">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="K10">
+      <c r="N10">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="L10">
+      <c r="O10">
         <v>2086</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1325,43 +1523,52 @@
         <v>2018</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" t="s">
-        <v>131</v>
-      </c>
       <c r="F11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>28</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>31</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>38</v>
       </c>
-      <c r="J11">
+      <c r="L11" t="s">
+        <v>167</v>
+      </c>
+      <c r="M11">
         <v>-0.14599999999999999</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>2859</v>
       </c>
-      <c r="P11">
+      <c r="S11">
         <v>1</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="T11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1369,43 +1576,52 @@
         <v>2018</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s">
         <v>21</v>
       </c>
-      <c r="E12" t="s">
-        <v>132</v>
-      </c>
       <c r="F12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>28</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>31</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>38</v>
       </c>
-      <c r="J12">
+      <c r="L12" t="s">
+        <v>167</v>
+      </c>
+      <c r="M12">
         <v>-4.9000000000000002E-2</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <v>2.3E-2</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <v>2859</v>
       </c>
-      <c r="P12">
+      <c r="S12">
         <v>1</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="T12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1413,43 +1629,52 @@
         <v>2018</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="s">
         <v>21</v>
       </c>
-      <c r="E13" t="s">
-        <v>133</v>
-      </c>
       <c r="F13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>28</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>31</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>38</v>
       </c>
-      <c r="J13">
+      <c r="L13" t="s">
+        <v>167</v>
+      </c>
+      <c r="M13">
         <v>-7.5999999999999998E-2</v>
       </c>
-      <c r="K13">
+      <c r="N13">
         <v>1.9E-2</v>
       </c>
-      <c r="L13">
+      <c r="O13">
         <v>2859</v>
       </c>
-      <c r="P13">
+      <c r="S13">
         <v>1</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="T13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1457,43 +1682,52 @@
         <v>2017</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" t="s">
         <v>26</v>
       </c>
-      <c r="E14" t="s">
-        <v>134</v>
-      </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
         <v>29</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>39</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>35</v>
       </c>
-      <c r="J14">
+      <c r="L14" t="s">
+        <v>166</v>
+      </c>
+      <c r="M14">
         <v>9.74E-2</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <v>4.0500000000000001E-2</v>
       </c>
-      <c r="L14">
+      <c r="O14">
         <v>610</v>
       </c>
-      <c r="P14">
+      <c r="S14">
         <v>1</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="T14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1501,43 +1735,52 @@
         <v>2021</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="D15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" t="s">
-        <v>135</v>
-      </c>
       <c r="F15" t="s">
+        <v>184</v>
+      </c>
+      <c r="G15" t="s">
+        <v>185</v>
+      </c>
+      <c r="H15" t="s">
         <v>18</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>29</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>39</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>42</v>
       </c>
-      <c r="J15">
+      <c r="L15" t="s">
+        <v>166</v>
+      </c>
+      <c r="M15">
         <v>0.10100000000000001</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <v>3.8600000000000002E-2</v>
       </c>
-      <c r="L15">
+      <c r="O15">
         <v>757</v>
       </c>
-      <c r="P15">
+      <c r="S15">
         <v>1</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="T15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1545,40 +1788,49 @@
         <v>2021</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" t="s">
         <v>16</v>
       </c>
-      <c r="E16" t="s">
-        <v>136</v>
-      </c>
       <c r="F16" t="s">
+        <v>184</v>
+      </c>
+      <c r="G16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>29</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>39</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>45</v>
       </c>
-      <c r="J16">
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16">
         <v>9.9500000000000005E-2</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="L16">
+      <c r="O16">
         <v>553</v>
       </c>
-      <c r="P16">
+      <c r="S16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1586,40 +1838,49 @@
         <v>2021</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
         <v>16</v>
       </c>
-      <c r="E17" t="s">
-        <v>137</v>
-      </c>
       <c r="F17" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" t="s">
         <v>18</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>29</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>39</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>43</v>
       </c>
-      <c r="J17">
+      <c r="L17" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17">
         <v>1.49E-2</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="L17">
+      <c r="O17">
         <v>551</v>
       </c>
-      <c r="P17">
+      <c r="S17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1627,40 +1888,49 @@
         <v>2018</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="E18" t="s">
-        <v>138</v>
-      </c>
       <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" t="s">
         <v>18</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>36</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>31</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>37</v>
       </c>
-      <c r="J18">
+      <c r="L18" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18">
         <v>-7.17E-2</v>
       </c>
-      <c r="K18">
+      <c r="N18">
         <v>2.4E-2</v>
       </c>
-      <c r="L18">
+      <c r="O18">
         <v>22291</v>
       </c>
-      <c r="P18">
+      <c r="S18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1668,40 +1938,49 @@
         <v>2018</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" t="s">
         <v>10</v>
       </c>
-      <c r="E19" t="s">
-        <v>139</v>
-      </c>
       <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>36</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>31</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>51</v>
       </c>
-      <c r="J19">
+      <c r="L19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19">
         <v>-4.24E-2</v>
       </c>
-      <c r="K19">
+      <c r="N19">
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="L19">
+      <c r="O19">
         <v>28752</v>
       </c>
-      <c r="P19">
+      <c r="S19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1709,37 +1988,46 @@
         <v>2020</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
         <v>52</v>
       </c>
-      <c r="E20" t="s">
-        <v>140</v>
-      </c>
       <c r="F20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" t="s">
+        <v>188</v>
+      </c>
+      <c r="H20" t="s">
         <v>18</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>36</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>31</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>51</v>
       </c>
-      <c r="J20">
+      <c r="L20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20">
         <v>0.08</v>
       </c>
-      <c r="K20">
+      <c r="N20">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="L20">
+      <c r="O20">
         <v>3718</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1747,37 +2035,46 @@
         <v>2020</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" t="s">
         <v>52</v>
       </c>
-      <c r="E21" t="s">
-        <v>126</v>
-      </c>
       <c r="F21" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" t="s">
         <v>18</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>36</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>31</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>51</v>
       </c>
-      <c r="J21">
+      <c r="L21" t="s">
+        <v>167</v>
+      </c>
+      <c r="M21">
         <v>0.01</v>
       </c>
-      <c r="K21">
+      <c r="N21">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="L21">
+      <c r="O21">
         <v>3718</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1785,40 +2082,49 @@
         <v>2021</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
         <v>8</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>161</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" t="s">
         <v>18</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>29</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>31</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>48</v>
       </c>
-      <c r="J22">
+      <c r="L22" t="s">
+        <v>166</v>
+      </c>
+      <c r="M22">
         <v>-5.8999999999999997E-2</v>
       </c>
-      <c r="K22">
+      <c r="N22">
         <v>0.03</v>
       </c>
-      <c r="L22">
+      <c r="O22">
         <v>1006</v>
       </c>
-      <c r="P22" s="1">
+      <c r="S22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1826,37 +2132,46 @@
         <v>2015</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
         <v>23</v>
       </c>
-      <c r="E23" t="s">
-        <v>142</v>
-      </c>
       <c r="F23" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" t="s">
         <v>18</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>56</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>55</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>50</v>
       </c>
-      <c r="J23">
+      <c r="L23" t="s">
+        <v>167</v>
+      </c>
+      <c r="M23">
         <v>2.4E-2</v>
       </c>
-      <c r="K23">
+      <c r="N23">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="L23">
+      <c r="O23">
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1864,37 +2179,46 @@
         <v>2015</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="D24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" t="s">
         <v>23</v>
       </c>
-      <c r="E24" t="s">
-        <v>141</v>
-      </c>
       <c r="F24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" t="s">
         <v>18</v>
       </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
         <v>56</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>55</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>50</v>
       </c>
-      <c r="J24">
+      <c r="L24" t="s">
+        <v>167</v>
+      </c>
+      <c r="M24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K24">
+      <c r="N24">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="L24">
+      <c r="O24">
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1902,37 +2226,46 @@
         <v>2019</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
         <v>49</v>
       </c>
-      <c r="E25" t="s">
-        <v>143</v>
-      </c>
       <c r="F25" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" t="s">
         <v>18</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I25" t="s">
         <v>29</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
         <v>31</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>48</v>
       </c>
-      <c r="J25">
+      <c r="L25" t="s">
+        <v>166</v>
+      </c>
+      <c r="M25">
         <v>0.21</v>
       </c>
-      <c r="K25">
+      <c r="N25">
         <v>0.11</v>
       </c>
-      <c r="L25">
+      <c r="O25">
         <v>12626</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1940,37 +2273,46 @@
         <v>2020</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="D26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" t="s">
         <v>8</v>
       </c>
-      <c r="E26" t="s">
-        <v>145</v>
-      </c>
       <c r="F26" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" t="s">
         <v>57</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
         <v>29</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" t="s">
         <v>31</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>50</v>
       </c>
-      <c r="J26">
+      <c r="L26" t="s">
+        <v>167</v>
+      </c>
+      <c r="M26">
         <v>0.25</v>
       </c>
-      <c r="K26">
+      <c r="N26">
         <v>0.21099999999999999</v>
       </c>
-      <c r="L26">
+      <c r="O26">
         <v>1684</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1978,37 +2320,46 @@
         <v>2020</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="D27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" t="s">
         <v>8</v>
       </c>
-      <c r="E27" t="s">
-        <v>146</v>
-      </c>
       <c r="F27" t="s">
+        <v>165</v>
+      </c>
+      <c r="G27" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" t="s">
         <v>57</v>
       </c>
-      <c r="G27" t="s">
+      <c r="I27" t="s">
         <v>29</v>
       </c>
-      <c r="H27" t="s">
+      <c r="J27" t="s">
         <v>31</v>
       </c>
-      <c r="I27" t="s">
+      <c r="K27" t="s">
         <v>50</v>
       </c>
-      <c r="J27">
+      <c r="L27" t="s">
+        <v>167</v>
+      </c>
+      <c r="M27">
         <v>0.26700000000000002</v>
       </c>
-      <c r="K27">
+      <c r="N27">
         <v>0.126</v>
       </c>
-      <c r="L27">
+      <c r="O27">
         <v>1684</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2016,40 +2367,49 @@
         <v>2020</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" t="s">
         <v>8</v>
       </c>
-      <c r="E28" t="s">
-        <v>147</v>
-      </c>
       <c r="F28" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" t="s">
+        <v>136</v>
+      </c>
+      <c r="H28" t="s">
         <v>57</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
         <v>29</v>
       </c>
-      <c r="H28" t="s">
+      <c r="J28" t="s">
         <v>53</v>
       </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
         <v>50</v>
       </c>
-      <c r="J28">
+      <c r="L28" t="s">
+        <v>167</v>
+      </c>
+      <c r="M28">
         <v>-3.44E-2</v>
       </c>
-      <c r="K28">
+      <c r="N28">
         <v>1.17E-2</v>
       </c>
-      <c r="L28">
+      <c r="O28">
         <v>3099</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="T28" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2057,40 +2417,49 @@
         <v>2020</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="D29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" t="s">
         <v>8</v>
       </c>
-      <c r="E29" t="s">
-        <v>148</v>
-      </c>
       <c r="F29" t="s">
+        <v>165</v>
+      </c>
+      <c r="G29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" t="s">
         <v>57</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
         <v>29</v>
       </c>
-      <c r="H29" t="s">
+      <c r="J29" t="s">
         <v>53</v>
       </c>
-      <c r="I29" t="s">
+      <c r="K29" t="s">
         <v>50</v>
       </c>
-      <c r="J29">
+      <c r="L29" t="s">
+        <v>167</v>
+      </c>
+      <c r="M29">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="K29">
+      <c r="N29">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="L29">
+      <c r="O29">
         <v>3528</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="T29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2098,40 +2467,49 @@
         <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="D30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" t="s">
         <v>23</v>
       </c>
-      <c r="E30" t="s">
-        <v>149</v>
-      </c>
       <c r="F30" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s">
         <v>62</v>
       </c>
-      <c r="G30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="J30" t="s">
         <v>31</v>
       </c>
-      <c r="I30" t="s">
+      <c r="K30" t="s">
         <v>50</v>
       </c>
-      <c r="J30">
+      <c r="L30" t="s">
+        <v>167</v>
+      </c>
+      <c r="M30">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K30">
+      <c r="N30">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="L30">
+      <c r="O30">
         <v>339</v>
       </c>
-      <c r="Q30">
+      <c r="T30">
         <v>2016</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2139,37 +2517,46 @@
         <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="D31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" t="s">
         <v>23</v>
       </c>
-      <c r="E31" t="s">
-        <v>150</v>
-      </c>
       <c r="F31" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
         <v>62</v>
       </c>
-      <c r="G31" t="s">
-        <v>63</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="J31" t="s">
         <v>31</v>
       </c>
-      <c r="I31" t="s">
+      <c r="K31" t="s">
         <v>61</v>
       </c>
-      <c r="J31">
+      <c r="L31" t="s">
+        <v>166</v>
+      </c>
+      <c r="M31">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="K31">
+      <c r="N31">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="L31">
+      <c r="O31">
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2177,37 +2564,46 @@
         <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" t="s">
         <v>23</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>163</v>
       </c>
-      <c r="F32" t="s">
-        <v>62</v>
-      </c>
       <c r="G32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
         <v>29</v>
       </c>
-      <c r="H32" t="s">
+      <c r="J32" t="s">
         <v>31</v>
       </c>
-      <c r="I32" t="s">
+      <c r="K32" t="s">
         <v>50</v>
       </c>
-      <c r="J32">
+      <c r="L32" t="s">
+        <v>167</v>
+      </c>
+      <c r="M32">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="K32">
+      <c r="N32">
         <v>0.11899999999999999</v>
       </c>
-      <c r="L32">
+      <c r="O32">
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -2215,37 +2611,46 @@
         <v>2021</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="D33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" t="s">
         <v>11</v>
       </c>
-      <c r="E33" t="s">
-        <v>151</v>
-      </c>
       <c r="F33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G33" t="s">
+        <v>189</v>
+      </c>
+      <c r="H33" t="s">
         <v>17</v>
       </c>
-      <c r="G33" t="s">
+      <c r="I33" t="s">
         <v>29</v>
       </c>
-      <c r="H33" t="s">
-        <v>65</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>64</v>
       </c>
-      <c r="J33">
+      <c r="K33" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" t="s">
+        <v>167</v>
+      </c>
+      <c r="M33">
         <v>0.04</v>
       </c>
-      <c r="K33">
+      <c r="N33">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="L33">
+      <c r="O33">
         <v>1477</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -2253,37 +2658,46 @@
         <v>2021</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="D34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" t="s">
         <v>11</v>
       </c>
-      <c r="E34" t="s">
-        <v>152</v>
-      </c>
       <c r="F34" t="s">
+        <v>184</v>
+      </c>
+      <c r="G34" t="s">
+        <v>190</v>
+      </c>
+      <c r="H34" t="s">
         <v>17</v>
       </c>
-      <c r="G34" t="s">
+      <c r="I34" t="s">
         <v>29</v>
       </c>
-      <c r="H34" t="s">
-        <v>65</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>64</v>
       </c>
-      <c r="J34">
+      <c r="K34" t="s">
+        <v>63</v>
+      </c>
+      <c r="L34" t="s">
+        <v>167</v>
+      </c>
+      <c r="M34">
         <v>0.19400000000000001</v>
       </c>
-      <c r="K34">
+      <c r="N34">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="L34">
+      <c r="O34">
         <v>547</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -2291,37 +2705,46 @@
         <v>2015</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="D35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" t="s">
+        <v>179</v>
+      </c>
+      <c r="G35" t="s">
+        <v>191</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" t="s">
         <v>66</v>
       </c>
-      <c r="E35" t="s">
-        <v>152</v>
-      </c>
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="K35" t="s">
         <v>67</v>
       </c>
-      <c r="I35" t="s">
-        <v>68</v>
-      </c>
-      <c r="J35">
+      <c r="L35" t="s">
+        <v>166</v>
+      </c>
+      <c r="M35">
         <v>-0.01</v>
       </c>
-      <c r="K35">
+      <c r="N35">
         <v>0.14499999999999999</v>
       </c>
-      <c r="L35">
+      <c r="O35">
         <v>12167</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -2329,37 +2752,46 @@
         <v>2015</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="D36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" t="s">
+        <v>179</v>
+      </c>
+      <c r="G36" t="s">
+        <v>192</v>
+      </c>
+      <c r="H36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" t="s">
         <v>66</v>
       </c>
-      <c r="E36" t="s">
-        <v>153</v>
-      </c>
-      <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="K36" t="s">
         <v>67</v>
       </c>
-      <c r="I36" t="s">
-        <v>68</v>
-      </c>
-      <c r="J36">
+      <c r="L36" t="s">
+        <v>166</v>
+      </c>
+      <c r="M36">
         <v>0.151</v>
       </c>
-      <c r="K36">
+      <c r="N36">
         <v>0.28499999999999998</v>
       </c>
-      <c r="L36">
+      <c r="O36">
         <v>11943</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2367,37 +2799,46 @@
         <v>2019</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="D37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" t="s">
         <v>8</v>
       </c>
-      <c r="E37" t="s">
-        <v>154</v>
-      </c>
       <c r="F37" t="s">
+        <v>184</v>
+      </c>
+      <c r="G37" t="s">
+        <v>193</v>
+      </c>
+      <c r="H37" t="s">
         <v>24</v>
       </c>
-      <c r="G37" t="s">
+      <c r="I37" t="s">
         <v>54</v>
       </c>
-      <c r="H37" t="s">
+      <c r="J37" t="s">
         <v>53</v>
       </c>
-      <c r="I37" t="s">
+      <c r="K37" t="s">
         <v>48</v>
       </c>
-      <c r="J37">
+      <c r="L37" t="s">
+        <v>166</v>
+      </c>
+      <c r="M37">
         <v>-0.05</v>
       </c>
-      <c r="K37">
+      <c r="N37">
         <v>0.06</v>
       </c>
-      <c r="L37">
+      <c r="O37">
         <v>5202</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2405,37 +2846,46 @@
         <v>2019</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="D38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" t="s">
         <v>8</v>
       </c>
-      <c r="E38" t="s">
-        <v>144</v>
-      </c>
       <c r="F38" t="s">
+        <v>161</v>
+      </c>
+      <c r="G38" t="s">
+        <v>133</v>
+      </c>
+      <c r="H38" t="s">
         <v>24</v>
       </c>
-      <c r="G38" t="s">
+      <c r="I38" t="s">
         <v>54</v>
       </c>
-      <c r="H38" t="s">
+      <c r="J38" t="s">
         <v>53</v>
       </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
         <v>48</v>
       </c>
-      <c r="J38">
+      <c r="L38" t="s">
+        <v>166</v>
+      </c>
+      <c r="M38">
         <v>-0.09</v>
       </c>
-      <c r="K38">
+      <c r="N38">
         <v>0.06</v>
       </c>
-      <c r="L38">
+      <c r="O38">
         <v>5202</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2443,262 +2893,375 @@
         <v>2019</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="D39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" t="s">
         <v>8</v>
       </c>
-      <c r="E39" t="s">
-        <v>155</v>
-      </c>
       <c r="F39" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" t="s">
+        <v>140</v>
+      </c>
+      <c r="H39" t="s">
         <v>24</v>
       </c>
-      <c r="G39" t="s">
+      <c r="I39" t="s">
         <v>54</v>
       </c>
-      <c r="H39" t="s">
+      <c r="J39" t="s">
         <v>53</v>
       </c>
-      <c r="I39" t="s">
+      <c r="K39" t="s">
         <v>48</v>
       </c>
-      <c r="J39">
+      <c r="L39" t="s">
+        <v>166</v>
+      </c>
+      <c r="M39">
         <v>0.2</v>
       </c>
-      <c r="K39">
+      <c r="N39">
         <v>0.06</v>
       </c>
-      <c r="L39">
+      <c r="O39">
         <v>5202</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
       <c r="B40">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="E40" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
+        <v>162</v>
+      </c>
+      <c r="G40" t="s">
+        <v>141</v>
+      </c>
+      <c r="H40" t="s">
         <v>24</v>
       </c>
-      <c r="G40" t="s">
-        <v>54</v>
-      </c>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
       <c r="I40" t="s">
-        <v>48</v>
-      </c>
-      <c r="J40">
-        <v>0.31</v>
-      </c>
-      <c r="K40">
-        <v>0.04</v>
-      </c>
-      <c r="L40">
-        <v>5098</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J40" t="s">
+        <v>31</v>
+      </c>
+      <c r="K40" t="s">
+        <v>69</v>
+      </c>
+      <c r="L40" t="s">
+        <v>166</v>
+      </c>
+      <c r="M40">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="N40">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="O40">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
+        <v>162</v>
+      </c>
+      <c r="G41" t="s">
+        <v>142</v>
+      </c>
+      <c r="H41" t="s">
         <v>24</v>
       </c>
-      <c r="G41" t="s">
-        <v>54</v>
-      </c>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
       <c r="I41" t="s">
-        <v>48</v>
-      </c>
-      <c r="J41">
-        <v>0.76</v>
-      </c>
-      <c r="K41">
-        <v>0.13</v>
-      </c>
-      <c r="L41">
-        <v>5098</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" t="s">
+        <v>68</v>
+      </c>
+      <c r="L41" t="s">
+        <v>167</v>
+      </c>
+      <c r="M41">
+        <v>0.12</v>
+      </c>
+      <c r="N41">
+        <v>0.06</v>
+      </c>
+      <c r="O41">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42">
         <v>2021</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="D42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" t="s">
         <v>10</v>
       </c>
-      <c r="E42" t="s">
-        <v>158</v>
-      </c>
       <c r="F42" t="s">
+        <v>162</v>
+      </c>
+      <c r="G42" t="s">
+        <v>144</v>
+      </c>
+      <c r="H42" t="s">
         <v>24</v>
       </c>
-      <c r="G42" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" t="s">
         <v>31</v>
       </c>
-      <c r="I42" t="s">
-        <v>70</v>
-      </c>
-      <c r="J42">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="K42">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="L42">
-        <v>3446</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K42" t="s">
+        <v>69</v>
+      </c>
+      <c r="L42" t="s">
+        <v>166</v>
+      </c>
+      <c r="M42">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="N42">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O42">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43">
         <v>2021</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="D43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" t="s">
         <v>10</v>
       </c>
-      <c r="E43" t="s">
-        <v>159</v>
-      </c>
       <c r="F43" t="s">
+        <v>162</v>
+      </c>
+      <c r="G43" t="s">
+        <v>169</v>
+      </c>
+      <c r="H43" t="s">
         <v>24</v>
       </c>
-      <c r="G43" t="s">
-        <v>29</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J43" t="s">
         <v>31</v>
       </c>
-      <c r="I43" t="s">
-        <v>69</v>
-      </c>
-      <c r="J43">
-        <v>0.12</v>
-      </c>
-      <c r="K43">
-        <v>0.06</v>
-      </c>
-      <c r="L43">
-        <v>3446</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K43" t="s">
+        <v>68</v>
+      </c>
+      <c r="L43" t="s">
+        <v>167</v>
+      </c>
+      <c r="M43">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N43">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O43">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B44">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="E44" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G44" t="s">
+        <v>170</v>
+      </c>
+      <c r="H44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
         <v>28</v>
       </c>
-      <c r="H44" t="s">
-        <v>31</v>
-      </c>
-      <c r="I44" t="s">
-        <v>70</v>
-      </c>
-      <c r="J44">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="K44">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="L44">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J44" t="s">
+        <v>171</v>
+      </c>
+      <c r="K44" t="s">
+        <v>172</v>
+      </c>
+      <c r="L44" t="s">
+        <v>167</v>
+      </c>
+      <c r="M44">
+        <v>1.3979999999999999E-2</v>
+      </c>
+      <c r="N44">
+        <v>3.5400000000000002E-3</v>
+      </c>
+      <c r="O44">
+        <v>2260</v>
+      </c>
+      <c r="T44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="B45">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="E45" t="s">
+        <v>175</v>
+      </c>
+      <c r="F45" t="s">
         <v>162</v>
       </c>
-      <c r="F45" t="s">
-        <v>24</v>
-      </c>
       <c r="G45" t="s">
+        <v>197</v>
+      </c>
+      <c r="H45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
         <v>28</v>
       </c>
-      <c r="H45" t="s">
-        <v>31</v>
-      </c>
-      <c r="I45" t="s">
-        <v>69</v>
-      </c>
-      <c r="J45">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K45">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L45">
-        <v>598</v>
+      <c r="J45" t="s">
+        <v>180</v>
+      </c>
+      <c r="K45" t="s">
+        <v>48</v>
+      </c>
+      <c r="L45" t="s">
+        <v>166</v>
+      </c>
+      <c r="M45">
+        <v>6.2E-2</v>
+      </c>
+      <c r="N45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O45">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46">
+        <v>2019</v>
+      </c>
+      <c r="C46" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" t="s">
+        <v>199</v>
+      </c>
+      <c r="E46" t="s">
+        <v>175</v>
+      </c>
+      <c r="F46" t="s">
+        <v>179</v>
+      </c>
+      <c r="G46" t="s">
+        <v>194</v>
+      </c>
+      <c r="H46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46" t="s">
+        <v>180</v>
+      </c>
+      <c r="K46" t="s">
+        <v>48</v>
+      </c>
+      <c r="L46" t="s">
+        <v>166</v>
+      </c>
+      <c r="M46">
+        <v>3.9E-2</v>
+      </c>
+      <c r="N46">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="O46">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
